--- a/coordinates_sample/503蜀郡/503蜀郡.xlsx
+++ b/coordinates_sample/503蜀郡/503蜀郡.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2040" yWindow="3780" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="503蜀郡(ID)" sheetId="1" r:id="rId1"/>
     <sheet name="503(CHGIS)" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="4" r:id="rId3"/>
+    <sheet name="503" sheetId="4" r:id="rId3"/>
     <sheet name="503(ONLINE)" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
@@ -1232,7 +1232,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1616,7 +1616,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
